--- a/ApolloQA/Data/RatingManual/TN/VA00060.ClassCode_FleetSize_VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/TN/VA00060.ClassCode_FleetSize_VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_FleetSize_VehicleAgeFactors" sheetId="1" r:id="Rf1bf74a942634b0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_FleetSize_VehicleAgeFactors" sheetId="1" r:id="Ree99c06e30ba4b31"/>
   </x:sheets>
 </x:workbook>
 </file>
